--- a/data/mall-cloud-alibaba/sms-server_structure.xlsx
+++ b/data/mall-cloud-alibaba/sms-server_structure.xlsx
@@ -543,39 +543,39 @@
     <t>com.mtcarpenter.mall.mapper.SmsHomeRecommendSubjectMapper</t>
   </si>
   <si>
+    <t>productCategoryRelationList</t>
+  </si>
+  <si>
     <t>productRelationList</t>
   </si>
   <si>
-    <t>productCategoryRelationList</t>
-  </si>
-  <si>
     <t>com.mtcarpenter.mall.mapper.SmsHomeRecommendProductMapper</t>
   </si>
   <si>
+    <t>couponMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.SmsCouponMapper</t>
+  </si>
+  <si>
+    <t>productRelationMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.SmsCouponProductRelationMapper</t>
+  </si>
+  <si>
+    <t>productCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
+  </si>
+  <si>
     <t>productCategoryRelationDao</t>
   </si>
   <si>
     <t>couponDao</t>
   </si>
   <si>
-    <t>productRelationMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.SmsCouponProductRelationMapper</t>
-  </si>
-  <si>
-    <t>productCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>couponMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.SmsCouponMapper</t>
-  </si>
-  <si>
     <t>productRelationDao</t>
   </si>
   <si>
@@ -591,19 +591,19 @@
     <t>homeNewProductService</t>
   </si>
   <si>
+    <t>relationMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.SmsFlashPromotionProductRelationMapper</t>
+  </si>
+  <si>
+    <t>relationDao</t>
+  </si>
+  <si>
     <t>pmsProductClient</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.client.PmsProductClient</t>
-  </si>
-  <si>
-    <t>relationDao</t>
-  </si>
-  <si>
-    <t>relationMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.SmsFlashPromotionProductRelationMapper</t>
   </si>
   <si>
     <t>historyMapper</t>
@@ -11867,13 +11867,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>83</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>63</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
@@ -11881,13 +11881,13 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>83</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>162</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -12041,7 +12041,7 @@
         <v>83</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>113</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -12049,13 +12049,13 @@
         <v>81</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>83</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>123</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -12063,13 +12063,13 @@
         <v>81</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>83</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -12077,13 +12077,13 @@
         <v>81</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>83</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>181</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -12091,13 +12091,13 @@
         <v>81</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>83</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>183</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
